--- a/public/template/mat.xlsx
+++ b/public/template/mat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14355" windowHeight="4875"/>
+    <workbookView xWindow="480" yWindow="110" windowWidth="14360" windowHeight="4880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>NO.</t>
   </si>
@@ -64,106 +64,94 @@
     <t>NOTE:  This file is saved as .XLSX extention. To upload your question, you have to create a  CSV (Comma Separated Value)  version of this file. To create the CSV version of this file, click File-&gt;Save as-&gt; and then select  CSV (Comma delimited). After saving click YES button. Close the file and select Don't Save Button. You can now upload CSV file generated from template. If you want to update you question before uploading always you the .XLSX file version and generate again a new CSV file version.</t>
   </si>
   <si>
-    <t>q1</t>
-  </si>
-  <si>
-    <t>q2</t>
-  </si>
-  <si>
-    <t>q3</t>
-  </si>
-  <si>
-    <t>q4</t>
-  </si>
-  <si>
-    <t>q5</t>
-  </si>
-  <si>
-    <t>q6</t>
-  </si>
-  <si>
-    <t>q7</t>
-  </si>
-  <si>
-    <t>q8</t>
-  </si>
-  <si>
-    <t>q9</t>
-  </si>
-  <si>
-    <t>q10</t>
-  </si>
-  <si>
-    <t>q11</t>
-  </si>
-  <si>
-    <t>q12</t>
-  </si>
-  <si>
-    <t>q13</t>
-  </si>
-  <si>
-    <t>q14</t>
-  </si>
-  <si>
-    <t>q15</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>a5</t>
-  </si>
-  <si>
-    <t>a6</t>
-  </si>
-  <si>
-    <t>a7</t>
-  </si>
-  <si>
-    <t>a8</t>
-  </si>
-  <si>
-    <t>a9</t>
-  </si>
-  <si>
-    <t>a10</t>
-  </si>
-  <si>
-    <t>a11</t>
-  </si>
-  <si>
-    <t>a12</t>
-  </si>
-  <si>
-    <t>a134</t>
-  </si>
-  <si>
-    <t>a14</t>
-  </si>
-  <si>
-    <t>a15</t>
-  </si>
-  <si>
-    <t>aaaaa1</t>
-  </si>
-  <si>
-    <t>aaaaa2</t>
-  </si>
-  <si>
-    <t>aaaaaa10</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaa15</t>
+    <t>Question 1</t>
+  </si>
+  <si>
+    <t>Question 2</t>
+  </si>
+  <si>
+    <t>Question 3</t>
+  </si>
+  <si>
+    <t>Question 4</t>
+  </si>
+  <si>
+    <t>Question 5</t>
+  </si>
+  <si>
+    <t>Question 6</t>
+  </si>
+  <si>
+    <t>Question 7</t>
+  </si>
+  <si>
+    <t>Question 8</t>
+  </si>
+  <si>
+    <t>Question 9</t>
+  </si>
+  <si>
+    <t>Question 10</t>
+  </si>
+  <si>
+    <t>Question 11</t>
+  </si>
+  <si>
+    <t>Question 12</t>
+  </si>
+  <si>
+    <t>Question 13</t>
+  </si>
+  <si>
+    <t>Question 14</t>
+  </si>
+  <si>
+    <t>Question 15</t>
+  </si>
+  <si>
+    <t>Answer 1</t>
+  </si>
+  <si>
+    <t>Answer 2</t>
+  </si>
+  <si>
+    <t>Answer 3</t>
+  </si>
+  <si>
+    <t>Answer 4</t>
+  </si>
+  <si>
+    <t>Answer 5</t>
+  </si>
+  <si>
+    <t>Answer 6</t>
+  </si>
+  <si>
+    <t>Answer 7</t>
+  </si>
+  <si>
+    <t>Answer 8</t>
+  </si>
+  <si>
+    <t>Answer 9</t>
+  </si>
+  <si>
+    <t>Answer 10</t>
+  </si>
+  <si>
+    <t>Answer 11</t>
+  </si>
+  <si>
+    <t>Answer 12</t>
+  </si>
+  <si>
+    <t>Answer 13</t>
+  </si>
+  <si>
+    <t>Answer 14</t>
+  </si>
+  <si>
+    <t>Answer 15</t>
   </si>
 </sst>
 </file>
@@ -261,15 +249,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -282,10 +264,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -591,25 +583,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.26953125" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7265625" customWidth="1"/>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -625,315 +617,323 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="D3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="D4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="D5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="D6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="D7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="D8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="D9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="D10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="D11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="D12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="D13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="D14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="D15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="D16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="D17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection password="D692" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CA9C" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <mergeCells count="2">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A19:J20"/>
